--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>city</t>
-  </si>
-  <si>
-    <t>GMV (in scale)</t>
-  </si>
-  <si>
-    <t>Count of Invoice</t>
-  </si>
-  <si>
-    <t>Count of Customer</t>
   </si>
   <si>
     <t>%GMV of cigarettes</t>
@@ -135,13 +126,25 @@
   <si>
     <t>the number of product categories that are successfully sold by salesman</t>
   </si>
+  <si>
+    <t>GMV</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>GMVcigar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -216,13 +219,13 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -233,8 +236,8 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -461,7 +464,9 @@
   </sheetPr>
   <dimension ref="A1:P961"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -486,37 +491,37 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -530,10 +535,10 @@
         <v>32390</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" s="8">
         <v>20759.650000000001</v>
@@ -580,10 +585,10 @@
         <v>32593</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8">
         <v>10335.075000000001</v>
@@ -630,10 +635,10 @@
         <v>34979</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" s="8">
         <v>58894.474999999999</v>
@@ -680,10 +685,10 @@
         <v>31677</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="8">
         <v>550415.9</v>
@@ -730,10 +735,10 @@
         <v>35727</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" s="8">
         <v>34807.574999999997</v>
@@ -780,10 +785,10 @@
         <v>32341</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F7" s="8">
         <v>4144.6499999999996</v>
@@ -830,10 +835,10 @@
         <v>34039</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F8" s="8">
         <v>17660.05</v>
@@ -880,10 +885,10 @@
         <v>32498</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="8">
         <v>328.5</v>
@@ -930,10 +935,10 @@
         <v>29352</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" s="8">
         <v>43497.675000000003</v>
@@ -980,10 +985,10 @@
         <v>29763</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" s="8">
         <v>128848.7</v>
@@ -1030,10 +1035,10 @@
         <v>32934</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F12" s="8">
         <v>399593.85</v>
@@ -1080,10 +1085,10 @@
         <v>30880</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8">
         <v>54355.15</v>
@@ -1130,10 +1135,10 @@
         <v>33121</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F14" s="8">
         <v>108638.85</v>
@@ -1180,10 +1185,10 @@
         <v>33647</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" s="8">
         <v>55843.125</v>
@@ -1230,10 +1235,10 @@
         <v>28096</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F16" s="8">
         <v>3854.2</v>
@@ -1280,10 +1285,10 @@
         <v>30305</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F17" s="8">
         <v>94139.524999999994</v>
@@ -1330,10 +1335,10 @@
         <v>27904</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F18" s="8">
         <v>138554.87</v>
@@ -1380,10 +1385,10 @@
         <v>32667</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F19" s="8">
         <v>3832.45</v>
@@ -1430,10 +1435,10 @@
         <v>32385</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F20" s="8">
         <v>16430.075000000001</v>
@@ -1480,10 +1485,10 @@
         <v>33865</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F21" s="8">
         <v>28012.35</v>
@@ -1530,10 +1535,10 @@
         <v>35174</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8">
         <v>129136.6</v>
@@ -1580,10 +1585,10 @@
         <v>33070</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F23" s="8">
         <v>225.75</v>
@@ -1630,10 +1635,10 @@
         <v>35386</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F24" s="8">
         <v>8331.4500000000007</v>
@@ -1680,10 +1685,10 @@
         <v>27033</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="8">
         <v>233206.97500000001</v>
@@ -1730,10 +1735,10 @@
         <v>29365</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F26" s="8">
         <v>5401.05</v>
@@ -1780,10 +1785,10 @@
         <v>29800</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F27" s="8">
         <v>1755.55</v>
@@ -1830,10 +1835,10 @@
         <v>33970</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F28" s="8">
         <v>392191.15</v>
@@ -1880,10 +1885,10 @@
         <v>29050</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F29" s="8">
         <v>455984.4</v>
@@ -1930,10 +1935,10 @@
         <v>30645</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F30" s="8">
         <v>311465.5</v>
@@ -1980,10 +1985,10 @@
         <v>26258</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F31" s="8">
         <v>11401.9</v>
@@ -2030,10 +2035,10 @@
         <v>30584</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F32" s="8">
         <v>11804.4</v>
@@ -2080,10 +2085,10 @@
         <v>32635</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F33" s="8">
         <v>8992.4500000000007</v>
@@ -2130,10 +2135,10 @@
         <v>30675</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F34" s="8">
         <v>26182.75</v>
@@ -2180,10 +2185,10 @@
         <v>29871</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F35" s="8">
         <v>33106.300000000003</v>
@@ -2230,10 +2235,10 @@
         <v>34588</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F36" s="8">
         <v>326239.90000000002</v>
@@ -2280,10 +2285,10 @@
         <v>35701</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F37" s="8">
         <v>11816.15</v>
@@ -2330,10 +2335,10 @@
         <v>32294</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F38" s="8">
         <v>189299.9</v>
@@ -2380,10 +2385,10 @@
         <v>28755</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F39" s="8">
         <v>358.9</v>
@@ -2430,10 +2435,10 @@
         <v>29564</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F40" s="8">
         <v>6349.8</v>
@@ -2480,10 +2485,10 @@
         <v>33949</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F41" s="8">
         <v>8900.4500000000007</v>
@@ -2530,10 +2535,10 @@
         <v>30255</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F42" s="8">
         <v>7210.25</v>
@@ -2580,10 +2585,10 @@
         <v>28628</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F43" s="8">
         <v>6320.2749999999996</v>
@@ -2630,10 +2635,10 @@
         <v>29989</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F44" s="8">
         <v>11033.85</v>
@@ -2680,10 +2685,10 @@
         <v>29989</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F45" s="8">
         <v>65</v>
@@ -2730,10 +2735,10 @@
         <v>30200</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F46" s="8">
         <v>161209.85</v>
@@ -2780,10 +2785,10 @@
         <v>34843</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F47" s="8">
         <v>5660.9</v>
@@ -2830,10 +2835,10 @@
         <v>33352</v>
       </c>
       <c r="D48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F48" s="8">
         <v>704.75</v>
@@ -2880,10 +2885,10 @@
         <v>29868</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F49" s="8">
         <v>28589.775000000001</v>
@@ -2930,10 +2935,10 @@
         <v>29517</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F50" s="8">
         <v>203.55</v>
@@ -2980,10 +2985,10 @@
         <v>30128</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F51" s="8">
         <v>2104.85</v>
@@ -3030,10 +3035,10 @@
         <v>31580</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F52" s="8">
         <v>23738.924999999999</v>
@@ -3080,10 +3085,10 @@
         <v>28574</v>
       </c>
       <c r="D53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F53" s="8">
         <v>136162.65</v>
@@ -3130,10 +3135,10 @@
         <v>33297</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F54" s="8">
         <v>7878.9</v>
@@ -3180,10 +3185,10 @@
         <v>34449</v>
       </c>
       <c r="D55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F55" s="8">
         <v>43649.1</v>
@@ -3230,10 +3235,10 @@
         <v>35945</v>
       </c>
       <c r="D56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F56" s="8">
         <v>17554.75</v>
@@ -3280,10 +3285,10 @@
         <v>32794</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F57" s="8">
         <v>8646.75</v>
@@ -3330,10 +3335,10 @@
         <v>30733</v>
       </c>
       <c r="D58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F58" s="8">
         <v>10480.049999999999</v>
@@ -3380,10 +3385,10 @@
         <v>33643</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F59" s="8">
         <v>42836.65</v>
@@ -3430,10 +3435,10 @@
         <v>31487</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F60" s="8">
         <v>547200.55000000005</v>
@@ -3480,10 +3485,10 @@
         <v>32493</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F61" s="8">
         <v>6419.75</v>
@@ -3530,10 +3535,10 @@
         <v>34567</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F62" s="8">
         <v>55572.324999999997</v>
@@ -3580,10 +3585,10 @@
         <v>31555</v>
       </c>
       <c r="D63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F63" s="8">
         <v>34952.775000000001</v>
@@ -3630,10 +3635,10 @@
         <v>32141</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F64" s="8">
         <v>1024190.825</v>
@@ -3680,10 +3685,10 @@
         <v>35053</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F65" s="8">
         <v>2121.3000000000002</v>
@@ -3730,10 +3735,10 @@
         <v>31486</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F66" s="8">
         <v>6502.85</v>
@@ -3780,10 +3785,10 @@
         <v>31305</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F67" s="8">
         <v>33806.449999999997</v>
@@ -3830,10 +3835,10 @@
         <v>34477</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F68" s="8">
         <v>114910.39999999999</v>
@@ -3880,10 +3885,10 @@
         <v>30601</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F69" s="8">
         <v>15587.725</v>
@@ -9293,18 +9298,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -9312,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -9320,71 +9325,71 @@
         <v>4</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
